--- a/Content.xlsx
+++ b/Content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26712"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30D9250-3C1F-4C62-8F02-54DAB70B031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A292295-2C3A-4B30-89D2-C79ED7056D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Технологическая анкета</t>
   </si>
@@ -87,7 +87,7 @@
     <t>Укажите ссылку на ресурс для скачивания архива и пароль к нему. Обратите внимание, что все файлы вложения для туров должны быть названы так же как и тур</t>
   </si>
   <si>
-    <t>5 вариантов username бота (ссылки на бота) каждый не более 3 символов</t>
+    <t>5 вариантов username бота (ссылки на бота) каждый не более 32 символов</t>
   </si>
   <si>
     <t>Описание (Description) — это текст, который пользователи будут видеть в начале диалога с ботом под заголовком "Что может делать этот бот?" не более 512 символов</t>
@@ -96,7 +96,10 @@
     <t>Информация (About) — это текст, который будет виден в профиле бота. не более 120 символов</t>
   </si>
   <si>
-    <t>Контакты агенства, список телефонов менеджеров с из ФИО</t>
+    <t>Контакты агенства, список телефонов менеджеров с их ФИО</t>
+  </si>
+  <si>
+    <t>Требования к персональным данным пользователей</t>
   </si>
 </sst>
 </file>
@@ -141,10 +144,75 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -153,19 +221,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -491,129 +564,131 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:3" ht="30.75">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:3" ht="30.75">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3" ht="30.75">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.75">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:3" ht="45.75">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="91.5">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:3" ht="91.5">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45.75">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:3" ht="45.75">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="229.5">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:3" ht="229.5">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="76.5">
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="76.5">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="76.5">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="76.5">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30.75">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="30.75">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="76.5">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:3" ht="76.5">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45.75">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:3" ht="45.75">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="30.75">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
+    <row r="18" spans="2:2" ht="30.75">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="3"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="3"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
